--- a/QLKS_Phân công.xlsx
+++ b/QLKS_Phân công.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QL_KS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TTN\QLKhachSan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Phân chia</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>Xây dựng module quản lý Nhân viên</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Vĩnh Hùng</t>
+  </si>
+  <si>
+    <t>Bá Quang</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Linh+Vĩnh Hùng</t>
+  </si>
+  <si>
+    <t>Huy Hùng</t>
   </si>
   <si>
     <r>
@@ -126,34 +147,10 @@
       </rPr>
       <t>1. Nguyễn Mai Linh
 2. Tăng Thị Huyền Trang
-3. Nguyễn Quốc Hùng
+3. Nguyễn Huy Hùng
 4. Đỗ Vĩnh Hùng
 5. Hồ Bá Quang</t>
     </r>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t>Quốc Hùng</t>
-  </si>
-  <si>
-    <t>Vĩnh Hùng</t>
-  </si>
-  <si>
-    <t>Bá Quang</t>
-  </si>
-  <si>
-    <t>Linh</t>
-  </si>
-  <si>
-    <t>Bá Quang +Quốc Hùng</t>
-  </si>
-  <si>
-    <t>Linh+Vĩnh Hùng</t>
   </si>
 </sst>
 </file>
@@ -557,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,7 +574,7 @@
     </row>
     <row r="4" spans="2:7" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -611,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -622,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +630,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -655,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
